--- a/doc/外部設計/02_DB定義書_E3.xlsx
+++ b/doc/外部設計/02_DB定義書_E3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E3\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4955F5B-7BE0-416C-9586-508A823399D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424D6648-0D89-4D7C-80E9-B8B3A0F2659B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="80">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1318,7 +1318,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1497,7 +1497,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="3">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1508,7 +1508,7 @@
       <c r="J12" s="6"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>password varchar (32),</v>
+        <v>password varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1922,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F992A3-2989-47BA-8454-5D537D64E6B9}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2127,7 +2127,9 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>48</v>
       </c>
@@ -2445,7 +2447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC8A3F2-0C78-41DE-ADB0-48D5F9C6FFF6}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/doc/外部設計/02_DB定義書_E3.xlsx
+++ b/doc/外部設計/02_DB定義書_E3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E3\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424D6648-0D89-4D7C-80E9-B8B3A0F2659B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E72B6F-917F-424E-96D3-FE55D28225E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="78">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -376,10 +376,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(4, 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メッツ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -394,24 +390,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>総消費カロリー</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ショウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sum_calories</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(6, 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>exercise_name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -514,6 +492,14 @@
     <rPh sb="3" eb="5">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -547,7 +533,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,6 +543,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -624,6 +616,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,7 +1316,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1375,7 +1373,9 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -1387,7 +1387,9 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="8">
+        <v>45461</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1529,9 +1531,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="3"/>
       <c r="J13" s="6"/>
       <c r="L13" t="str">
@@ -1552,19 +1552,15 @@
       <c r="D14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="3"/>
       <c r="J14" s="6"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>height double ((4, 1)),</v>
+        <v>height double ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1580,14 +1576,10 @@
       <c r="D15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
@@ -1613,9 +1605,7 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="3"/>
       <c r="J16" s="6" t="s">
         <v>52</v>
@@ -1630,27 +1620,23 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="H17" s="7"/>
       <c r="I17" s="3"/>
       <c r="J17" s="6"/>
       <c r="L17" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>goal_weight double ((4, 1)),</v>
+        <v xml:space="preserve">goal_weight double </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1673,32 +1659,24 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ref="L18:L30" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>cat varchar (100),</v>
+        <v>cat varchar (100)</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1706,7 +1684,7 @@
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>sum_calories double ((6, 1))</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1922,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F992A3-2989-47BA-8454-5D537D64E6B9}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1980,7 +1958,9 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -1992,7 +1972,9 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="8">
+        <v>45461</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2062,16 +2044,18 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="3"/>
+      <c r="B11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7">
+        <v>20</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
@@ -2081,7 +2065,7 @@
       <c r="J11" s="6"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>ex_ID int ,</v>
+        <v>user_id varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2092,13 +2076,13 @@
         <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2137,7 +2121,7 @@
         <v>58</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2447,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC8A3F2-0C78-41DE-ADB0-48D5F9C6FFF6}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2560,10 +2544,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>51</v>
@@ -2576,7 +2560,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2591,7 +2575,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -2604,7 +2588,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2616,23 +2600,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
